--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>415965.1924605633</v>
+        <v>411827.7093256493</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33940801.53424102</v>
+        <v>33940801.53424101</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6660456.462021569</v>
+        <v>6660456.462021568</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4842959.545100996</v>
+        <v>4842959.545100995</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>4.7891867505676</v>
+        <v>23.3277992508251</v>
       </c>
       <c r="D2" t="n">
-        <v>23.32779925082541</v>
+        <v>23.3277992508251</v>
       </c>
       <c r="E2" t="n">
-        <v>23.32779925082541</v>
+        <v>1.877148757990645</v>
       </c>
       <c r="F2" t="n">
-        <v>23.32779925082541</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>23.3277992508251</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.3277992508251</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>23.3277992508251</v>
       </c>
       <c r="F3" t="n">
-        <v>23.32779925082541</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>23.32779925082541</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>23.32779925082541</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>20.54712558012675</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>20.54712558012701</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082541</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23.32779925082541</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.32779925082541</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>23.3277992508251</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.8458783860902288</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.7012471940365</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>23.3277992508251</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>23.3277992508251</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.54712558012701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488437</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -977,11 +977,11 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>36.39025468426209</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>41.31500304752735</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="G7" t="n">
         <v>41.31500304752735</v>
@@ -1074,7 +1074,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
-        <v>37.06736141641878</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>17.84229754998328</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.7073503058805</v>
       </c>
       <c r="C11" t="n">
-        <v>250.9149310014929</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>138.7434236076974</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>47.09262707756164</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>143.7721879877244</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>352.0680985965221</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>20.30917127377703</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1782,7 +1782,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>29.30026393667308</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>210.8704885573383</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>375.2519086004926</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -1897,7 +1897,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2022,7 +2022,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>31.15859279518847</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>29.3002639366724</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>93.53818910684694</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>323.4892632978069</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>54.3166146207495</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>49.34995949258592</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2323,7 +2323,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2332,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>152.6826055820602</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>212.6615473203991</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>154.4368869916649</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777209</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>105.5188043066308</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>109.5540470185009</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>114.2435844806785</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777209</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2803,10 +2803,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>275.1106372348585</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>136.0250758436192</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,16 +2955,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>53.19117033386376</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>61.19617440684033</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>172.3976083576594</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>109.554047018501</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,10 +3204,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>61.81729390322803</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>63.61660906649195</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>187.0092917980332</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>359.2048966415935</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3429,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>85.1488807209173</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>23.92542949176416</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3505,22 +3505,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.769130056585298</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>109.5540470185009</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0.4925403463340183</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>94.48222241505111</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,13 +3748,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>158.685170298864</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>276.6628177496845</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>88.24074300591387</v>
+        <v>1.935340845623991</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>122.1682864570577</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>93.16613052254591</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>19.70610221343463</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>11.45461388085713</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.39408707445374</v>
+        <v>50.88920097000626</v>
       </c>
       <c r="C2" t="n">
-        <v>72.55652470014303</v>
+        <v>27.32576738331424</v>
       </c>
       <c r="D2" t="n">
-        <v>48.9930911134507</v>
+        <v>3.762333796622215</v>
       </c>
       <c r="E2" t="n">
-        <v>25.42965752675837</v>
+        <v>1.866223940066008</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866223940066033</v>
+        <v>1.866223940066008</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866223940066033</v>
+        <v>1.866223940066008</v>
       </c>
       <c r="H2" t="n">
-        <v>1.866223940066033</v>
+        <v>1.866223940066008</v>
       </c>
       <c r="I2" t="n">
-        <v>4.300780394746154</v>
+        <v>4.300780394746087</v>
       </c>
       <c r="J2" t="n">
-        <v>10.55978981922424</v>
+        <v>10.55978981922409</v>
       </c>
       <c r="K2" t="n">
-        <v>19.94042246570155</v>
+        <v>19.94042246570127</v>
       </c>
       <c r="L2" t="n">
-        <v>31.57792675593645</v>
+        <v>31.57792675593603</v>
       </c>
       <c r="M2" t="n">
-        <v>44.5268925858413</v>
+        <v>44.52689258584071</v>
       </c>
       <c r="N2" t="n">
-        <v>57.68538622060099</v>
+        <v>57.68538622060022</v>
       </c>
       <c r="O2" t="n">
-        <v>70.11057862895494</v>
+        <v>70.11057862895402</v>
       </c>
       <c r="P2" t="n">
-        <v>80.71519288249893</v>
+        <v>80.71519288249786</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.67881654691351</v>
+        <v>88.67881654691234</v>
       </c>
       <c r="R2" t="n">
-        <v>93.31119700330163</v>
+        <v>93.31119700330039</v>
       </c>
       <c r="S2" t="n">
-        <v>93.31119700330163</v>
+        <v>93.31119700330039</v>
       </c>
       <c r="T2" t="n">
-        <v>93.31119700330163</v>
+        <v>93.31119700330039</v>
       </c>
       <c r="U2" t="n">
-        <v>93.31119700330163</v>
+        <v>93.31119700330039</v>
       </c>
       <c r="V2" t="n">
-        <v>93.31119700330163</v>
+        <v>93.31119700330039</v>
       </c>
       <c r="W2" t="n">
-        <v>92.49614645473899</v>
+        <v>92.49614645473775</v>
       </c>
       <c r="X2" t="n">
-        <v>77.39408707445374</v>
+        <v>77.3940870744525</v>
       </c>
       <c r="Y2" t="n">
-        <v>77.39408707445374</v>
+        <v>73.14836741450998</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.55652470014303</v>
+        <v>48.99309111345005</v>
       </c>
       <c r="C3" t="n">
-        <v>72.55652470014303</v>
+        <v>48.99309111345005</v>
       </c>
       <c r="D3" t="n">
-        <v>72.55652470014303</v>
+        <v>25.42965752675803</v>
       </c>
       <c r="E3" t="n">
-        <v>72.55652470014303</v>
+        <v>1.866223940066008</v>
       </c>
       <c r="F3" t="n">
-        <v>48.9930911134507</v>
+        <v>1.866223940066008</v>
       </c>
       <c r="G3" t="n">
-        <v>25.42965752675837</v>
+        <v>1.866223940066008</v>
       </c>
       <c r="H3" t="n">
-        <v>1.866223940066033</v>
+        <v>1.866223940066008</v>
       </c>
       <c r="I3" t="n">
-        <v>24.96074519838318</v>
+        <v>3.224722227401263</v>
       </c>
       <c r="J3" t="n">
-        <v>28.68856833309517</v>
+        <v>6.952545362113202</v>
       </c>
       <c r="K3" t="n">
-        <v>35.06001182925093</v>
+        <v>13.32398885826888</v>
       </c>
       <c r="L3" t="n">
-        <v>43.62720389479649</v>
+        <v>21.89118092381434</v>
       </c>
       <c r="M3" t="n">
-        <v>53.62471294694409</v>
+        <v>31.88868997596181</v>
       </c>
       <c r="N3" t="n">
-        <v>63.88682631518541</v>
+        <v>42.15080334420299</v>
       </c>
       <c r="O3" t="n">
-        <v>73.27465518054548</v>
+        <v>51.53863220956293</v>
       </c>
       <c r="P3" t="n">
-        <v>80.80921549060956</v>
+        <v>59.07319251962693</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.84586952304342</v>
+        <v>70.21667574498356</v>
       </c>
       <c r="R3" t="n">
-        <v>93.31119700330163</v>
+        <v>93.31119700330039</v>
       </c>
       <c r="S3" t="n">
-        <v>93.31119700330163</v>
+        <v>93.31119700330039</v>
       </c>
       <c r="T3" t="n">
-        <v>93.31119700330163</v>
+        <v>93.31119700330039</v>
       </c>
       <c r="U3" t="n">
-        <v>93.31119700330163</v>
+        <v>93.31119700330039</v>
       </c>
       <c r="V3" t="n">
-        <v>93.31119700330163</v>
+        <v>72.55652470014206</v>
       </c>
       <c r="W3" t="n">
-        <v>93.31119700330163</v>
+        <v>72.55652470014206</v>
       </c>
       <c r="X3" t="n">
-        <v>72.55652470014303</v>
+        <v>72.55652470014206</v>
       </c>
       <c r="Y3" t="n">
-        <v>72.55652470014303</v>
+        <v>72.55652470014206</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.9930911134507</v>
+        <v>26.28408013897038</v>
       </c>
       <c r="C4" t="n">
-        <v>25.42965752675837</v>
+        <v>26.28408013897038</v>
       </c>
       <c r="D4" t="n">
-        <v>1.866223940066033</v>
+        <v>26.28408013897038</v>
       </c>
       <c r="E4" t="n">
-        <v>1.866223940066033</v>
+        <v>26.28408013897038</v>
       </c>
       <c r="F4" t="n">
-        <v>1.866223940066033</v>
+        <v>2.72064655227836</v>
       </c>
       <c r="G4" t="n">
-        <v>1.866223940066033</v>
+        <v>2.72064655227836</v>
       </c>
       <c r="H4" t="n">
-        <v>1.866223940066033</v>
+        <v>2.72064655227836</v>
       </c>
       <c r="I4" t="n">
-        <v>1.866223940066033</v>
+        <v>1.866223940066008</v>
       </c>
       <c r="J4" t="n">
-        <v>24.96074519838318</v>
+        <v>5.261365973417962</v>
       </c>
       <c r="K4" t="n">
-        <v>48.05526645670033</v>
+        <v>9.10459550226274</v>
       </c>
       <c r="L4" t="n">
-        <v>71.14978771501748</v>
+        <v>32.19911676057959</v>
       </c>
       <c r="M4" t="n">
-        <v>76.8027519160195</v>
+        <v>37.38446940266648</v>
       </c>
       <c r="N4" t="n">
-        <v>81.86480846211066</v>
+        <v>42.44652594875758</v>
       </c>
       <c r="O4" t="n">
-        <v>86.54043700001985</v>
+        <v>47.12215448666672</v>
       </c>
       <c r="P4" t="n">
-        <v>90.54124495399101</v>
+        <v>70.21667574498356</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.31119700330163</v>
+        <v>93.31119700330039</v>
       </c>
       <c r="R4" t="n">
-        <v>93.31119700330163</v>
+        <v>73.41094731235442</v>
       </c>
       <c r="S4" t="n">
-        <v>93.31119700330163</v>
+        <v>73.41094731235442</v>
       </c>
       <c r="T4" t="n">
-        <v>93.31119700330163</v>
+        <v>73.41094731235442</v>
       </c>
       <c r="U4" t="n">
-        <v>93.31119700330163</v>
+        <v>49.8475137256624</v>
       </c>
       <c r="V4" t="n">
-        <v>93.31119700330163</v>
+        <v>49.8475137256624</v>
       </c>
       <c r="W4" t="n">
-        <v>93.31119700330163</v>
+        <v>26.28408013897038</v>
       </c>
       <c r="X4" t="n">
-        <v>93.31119700330163</v>
+        <v>26.28408013897038</v>
       </c>
       <c r="Y4" t="n">
-        <v>72.55652470014303</v>
+        <v>26.28408013897038</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064263</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
         <v>3.305200243802188</v>
@@ -4564,22 +4564,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952741</v>
+        <v>7.922179662952697</v>
       </c>
       <c r="J5" t="n">
-        <v>18.98581709030271</v>
+        <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176024</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654182</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682888</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N5" t="n">
-        <v>102.286620264271</v>
+        <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
         <v>124.2498119529546</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.06303325820834</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="C6" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="D6" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F6" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G6" t="n">
         <v>3.305200243802188</v>
@@ -4643,31 +4643,31 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J6" t="n">
-        <v>12.29595456866669</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K6" t="n">
-        <v>23.55833427601031</v>
+        <v>71.1588637208333</v>
       </c>
       <c r="L6" t="n">
-        <v>38.70199365651513</v>
+        <v>86.30252310133811</v>
       </c>
       <c r="M6" t="n">
-        <v>56.37392987329654</v>
+        <v>103.9744593181195</v>
       </c>
       <c r="N6" t="n">
-        <v>74.51358965724877</v>
+        <v>122.1141191020718</v>
       </c>
       <c r="O6" t="n">
-        <v>91.1078344893717</v>
+        <v>138.7083639341947</v>
       </c>
       <c r="P6" t="n">
-        <v>104.4261789416173</v>
+        <v>152.0267083864403</v>
       </c>
       <c r="Q6" t="n">
-        <v>124.3581591730573</v>
+        <v>160.929668948206</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
@@ -4676,22 +4676,22 @@
         <v>123.5276858794757</v>
       </c>
       <c r="T6" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="U6" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="V6" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W6" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X6" t="n">
         <v>81.79535956884203</v>
       </c>
       <c r="Y6" t="n">
-        <v>40.06303325820834</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="C7" t="n">
+        <v>146.5247019534642</v>
+      </c>
+      <c r="D7" t="n">
+        <v>146.5247019534642</v>
+      </c>
+      <c r="E7" t="n">
+        <v>146.5247019534642</v>
+      </c>
+      <c r="F7" t="n">
         <v>128.5021791757032</v>
       </c>
-      <c r="D7" t="n">
-        <v>128.5021791757032</v>
-      </c>
-      <c r="E7" t="n">
-        <v>128.5021791757032</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>86.76985286506957</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>7.439194768028656</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>14.23261768427069</v>
+        <v>51.00047617709629</v>
       </c>
       <c r="L7" t="n">
-        <v>22.9258601234117</v>
+        <v>59.69371861623731</v>
       </c>
       <c r="M7" t="n">
-        <v>32.09166539295484</v>
+        <v>68.85952388578045</v>
       </c>
       <c r="N7" t="n">
-        <v>42.55445313895319</v>
+        <v>77.80738679259596</v>
       </c>
       <c r="O7" t="n">
-        <v>83.45630615600527</v>
+        <v>86.07218644061874</v>
       </c>
       <c r="P7" t="n">
         <v>124.3581591730573</v>
@@ -4749,28 +4749,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4792,13 +4792,13 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
         <v>7.922179662952697</v>
@@ -4807,19 +4807,19 @@
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654178</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
         <v>142.9948879228476</v>
@@ -4840,7 +4840,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="V8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
         <v>164.4449616415467</v>
@@ -4849,7 +4849,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901093</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901093</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E9" t="n">
-        <v>127.8182329816055</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>31.77020107089877</v>
+        <v>5.706527910441171</v>
       </c>
       <c r="J9" t="n">
-        <v>59.89648401348961</v>
+        <v>23.32497423834099</v>
       </c>
       <c r="K9" t="n">
-        <v>71.15886372083324</v>
+        <v>34.5873539456846</v>
       </c>
       <c r="L9" t="n">
-        <v>86.30252310133805</v>
+        <v>49.73101332618943</v>
       </c>
       <c r="M9" t="n">
-        <v>103.9744593181195</v>
+        <v>67.40294954297083</v>
       </c>
       <c r="N9" t="n">
-        <v>122.1141191020717</v>
+        <v>85.54260932692307</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7083639341946</v>
+        <v>102.136854159046</v>
       </c>
       <c r="P9" t="n">
-        <v>152.0267083864402</v>
+        <v>115.4551986112916</v>
       </c>
       <c r="Q9" t="n">
-        <v>160.9296689482059</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.03752655443586</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802187</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>7.439194768028655</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>14.23261768427069</v>
+        <v>48.34104778508073</v>
       </c>
       <c r="L10" t="n">
-        <v>22.9258601234117</v>
+        <v>89.24290080213279</v>
       </c>
       <c r="M10" t="n">
-        <v>32.09166539295484</v>
+        <v>100.0735327310763</v>
       </c>
       <c r="N10" t="n">
-        <v>42.55445313895315</v>
+        <v>109.0213956378918</v>
       </c>
       <c r="O10" t="n">
-        <v>83.45630615600521</v>
+        <v>117.2861952859146</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>146.5247019534641</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>104.7923756428304</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>63.06004933219675</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>45.03752655443586</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>45.03752655443586</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>45.03752655443586</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X10" t="n">
-        <v>45.03752655443586</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.03752655443586</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1997.710627381563</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C11" t="n">
-        <v>1744.26120212753</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D11" t="n">
-        <v>1308.351417301975</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E11" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W11" t="n">
-        <v>1997.710627381563</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X11" t="n">
-        <v>1997.710627381563</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="Y11" t="n">
-        <v>1997.710627381563</v>
+        <v>1745.473006065472</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,25 +5111,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5208,16 +5208,16 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1831.124845221574</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W13" t="n">
-        <v>1559.098440807865</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.53013062851</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1180.705317421392</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C14" t="n">
-        <v>1180.705317421392</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D14" t="n">
-        <v>744.7955325958366</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E14" t="n">
-        <v>744.7955325958366</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>2004.703235431048</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W14" t="n">
-        <v>1599.847780842081</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X14" t="n">
-        <v>1180.705317421392</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y14" t="n">
-        <v>1180.705317421392</v>
+        <v>1889.485634438363</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5399,10 +5399,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.291841223631</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7301297068562</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H16" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092381</v>
+        <v>828.1746199579902</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2330.731351249077</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>2088.484127152484</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U16" t="n">
-        <v>2088.484127152484</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1801.528619022914</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W16" t="n">
-        <v>1529.502214609206</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X16" t="n">
-        <v>1284.110459942618</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1087.577165952531</v>
+        <v>1699.803832431299</v>
       </c>
       <c r="C17" t="n">
-        <v>1087.577165952531</v>
+        <v>1261.661359614723</v>
       </c>
       <c r="D17" t="n">
-        <v>1087.577165952531</v>
+        <v>825.7515747891671</v>
       </c>
       <c r="E17" t="n">
-        <v>874.5766724602698</v>
+        <v>825.7515747891671</v>
       </c>
       <c r="F17" t="n">
         <v>446.7092428694776</v>
@@ -5512,13 +5512,13 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
         <v>805.440802286702</v>
@@ -5545,22 +5545,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V17" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W17" t="n">
-        <v>1915.005753073567</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X17" t="n">
-        <v>1495.863289652877</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y17" t="n">
-        <v>1087.577165952531</v>
+        <v>1699.803832431299</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,31 +5585,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>856.6348431431041</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C19" t="n">
-        <v>856.6348431431041</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D19" t="n">
-        <v>690.7568503446269</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E19" t="n">
-        <v>520.9988465953642</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F19" t="n">
-        <v>344.2917925571204</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>289.4920009833859</v>
+        <v>295.9524490360514</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092375</v>
+        <v>419.8232506543494</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827552</v>
+        <v>550.4276429928788</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789086</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5706,19 +5706,19 @@
         <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1831.124845221573</v>
       </c>
       <c r="W19" t="n">
-        <v>1521.264887214571</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X19" t="n">
-        <v>1275.873132547983</v>
+        <v>1313.706686141277</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.453461862091</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1355.033554032792</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="C20" t="n">
-        <v>916.8910812162151</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="D20" t="n">
-        <v>480.9812963906596</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895473</v>
@@ -5749,25 +5749,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5785,19 +5785,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2108.089956131646</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>2108.089956131646</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="W20" t="n">
-        <v>2108.089956131646</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="X20" t="n">
-        <v>1781.3331245177</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="Y20" t="n">
-        <v>1781.3331245177</v>
+        <v>1754.536245353315</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.0817647851416</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C22" t="n">
-        <v>443.5200532683665</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D22" t="n">
-        <v>443.5200532683665</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G22" t="n">
         <v>47.20655154895473</v>
@@ -5910,25 +5910,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M22" t="n">
-        <v>1340.193340120865</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N22" t="n">
-        <v>1467.692251924755</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2310.479133515832</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>2068.231909419238</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1789.845277467981</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270316</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856608</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041287</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1900.718744241844</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C23" t="n">
-        <v>1462.576271425268</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D23" t="n">
-        <v>1462.576271425268</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E23" t="n">
-        <v>1028.801526583563</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F23" t="n">
-        <v>600.9340969927707</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G23" t="n">
-        <v>201.4314056722479</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M23" t="n">
         <v>1131.588690455489</v>
@@ -6013,28 +6013,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662534</v>
+        <v>2145.517933689757</v>
       </c>
       <c r="V23" t="n">
-        <v>2319.861207662534</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="W23" t="n">
-        <v>2319.861207662534</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X23" t="n">
-        <v>1900.718744241844</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y23" t="n">
-        <v>1900.718744241844</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="24">
@@ -6062,19 +6062,19 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
         <v>803.387703298788</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>888.10816919885</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C25" t="n">
-        <v>715.5464576820749</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6684648835976</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E25" t="n">
-        <v>379.9104611343349</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>203.2034070960911</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092375</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M25" t="n">
         <v>1066.127311827552</v>
@@ -6162,7 +6162,7 @@
         <v>1635.885026789086</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P25" t="n">
         <v>2274.089213540313</v>
@@ -6171,28 +6171,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270316</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W25" t="n">
-        <v>1552.738213270316</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X25" t="n">
-        <v>1307.346458603729</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y25" t="n">
-        <v>1079.926787917837</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="26">
@@ -6226,13 +6226,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L26" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T26" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U26" t="n">
-        <v>1889.485634438362</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V26" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W26" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X26" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="Y26" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="27">
@@ -6308,13 +6308,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.6552262893761</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C28" t="n">
-        <v>471.6552262893761</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D28" t="n">
-        <v>471.6552262893761</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E28" t="n">
-        <v>471.6552262893761</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>294.9481722511323</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G28" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H28" t="n">
         <v>47.20655154895472</v>
@@ -6384,25 +6384,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>688.1212571728194</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M28" t="n">
-        <v>1272.302332591134</v>
+        <v>910.9641928553085</v>
       </c>
       <c r="N28" t="n">
-        <v>1399.801244395024</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774551</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.285270360843</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X28" t="n">
-        <v>890.893515694255</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083632</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1355.033554032792</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="C29" t="n">
-        <v>916.8910812162151</v>
+        <v>1622.648043367471</v>
       </c>
       <c r="D29" t="n">
-        <v>480.9812963906596</v>
+        <v>1186.738258541915</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895473</v>
+        <v>752.9635137002101</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895473</v>
+        <v>325.0960841094179</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
         <v>118.4065018001353</v>
@@ -6487,28 +6487,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
-        <v>2182.462141153827</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U29" t="n">
-        <v>2182.462141153827</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V29" t="n">
-        <v>2182.462141153827</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.462141153827</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="X29" t="n">
-        <v>1763.319677733138</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="Y29" t="n">
-        <v>1355.033554032792</v>
+        <v>2060.790516184047</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043084</v>
@@ -6545,19 +6545,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
         <v>1488.088567599445</v>
@@ -6597,58 +6597,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.0817647851416</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C31" t="n">
-        <v>443.5200532683665</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D31" t="n">
-        <v>277.6420604698892</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>273.7620495191033</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092379</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>997.5438780199984</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540313</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T31" t="n">
         <v>2118.080353351143</v>
@@ -6663,10 +6663,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1529.172552373862</v>
+        <v>1893.561637177625</v>
       </c>
       <c r="C32" t="n">
-        <v>1091.030079557285</v>
+        <v>1455.419164361049</v>
       </c>
       <c r="D32" t="n">
-        <v>655.1202947317297</v>
+        <v>1019.509379535493</v>
       </c>
       <c r="E32" t="n">
-        <v>221.3455498900249</v>
+        <v>585.7346346937884</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895473</v>
+        <v>157.8672051029961</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
         <v>1775.969506973259</v>
@@ -6724,28 +6724,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W32" t="n">
-        <v>1955.47212285877</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X32" t="n">
-        <v>1955.47212285877</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="Y32" t="n">
-        <v>1955.47212285877</v>
+        <v>2319.861207662533</v>
       </c>
     </row>
     <row r="33">
@@ -6773,16 +6773,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L33" t="n">
         <v>551.5786779960906</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>959.2942050525569</v>
+        <v>794.0697878044699</v>
       </c>
       <c r="C34" t="n">
-        <v>786.7324935357818</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="D34" t="n">
-        <v>620.8545007373045</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E34" t="n">
-        <v>451.0964969880418</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F34" t="n">
-        <v>274.389442949798</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G34" t="n">
-        <v>109.6482625623164</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K34" t="n">
-        <v>289.4920009833859</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L34" t="n">
-        <v>413.3628026016838</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M34" t="n">
-        <v>997.5438780199985</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N34" t="n">
-        <v>1567.301592981533</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O34" t="n">
-        <v>1685.067474329294</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T34" t="n">
-        <v>2215.901038951971</v>
+        <v>2296.068376370471</v>
       </c>
       <c r="U34" t="n">
-        <v>1937.514407000714</v>
+        <v>2017.681744419214</v>
       </c>
       <c r="V34" t="n">
-        <v>1650.558898871144</v>
+        <v>1730.726236289645</v>
       </c>
       <c r="W34" t="n">
-        <v>1378.532494457436</v>
+        <v>1458.699831875936</v>
       </c>
       <c r="X34" t="n">
-        <v>1378.532494457436</v>
+        <v>1213.308077209349</v>
       </c>
       <c r="Y34" t="n">
-        <v>1151.112823771544</v>
+        <v>985.888406523457</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.1048260924226</v>
+        <v>1284.092038121989</v>
       </c>
       <c r="C35" t="n">
-        <v>236.1048260924226</v>
+        <v>845.9495653054128</v>
       </c>
       <c r="D35" t="n">
-        <v>236.1048260924226</v>
+        <v>410.0397804798573</v>
       </c>
       <c r="E35" t="n">
-        <v>236.1048260924226</v>
+        <v>410.0397804798573</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895473</v>
+        <v>410.0397804798573</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
         <v>276.0532770435805</v>
@@ -6943,7 +6943,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
         <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586986</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>1081.54685999802</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X35" t="n">
-        <v>662.4043965773304</v>
+        <v>1284.092038121989</v>
       </c>
       <c r="Y35" t="n">
-        <v>662.4043965773304</v>
+        <v>1284.092038121989</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P36" t="n">
         <v>1488.088567599445</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>471.6552262893761</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C37" t="n">
-        <v>299.0935147726011</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D37" t="n">
-        <v>133.2155219741237</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E37" t="n">
-        <v>47.20655154895473</v>
+        <v>443.520053268366</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895473</v>
+        <v>266.8129992301223</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M37" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>890.893515694255</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>449.5063439367354</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>449.5063439367354</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>449.5063439367354</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>449.5063439367354</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>449.5063439367354</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G38" t="n">
-        <v>50.00365261621261</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V38" t="n">
-        <v>2108.089956131646</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W38" t="n">
-        <v>1703.234501542679</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X38" t="n">
-        <v>1284.09203812199</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>875.8059144216433</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7259,10 +7259,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>896.8524940391952</v>
+        <v>699.0748969752678</v>
       </c>
       <c r="C40" t="n">
-        <v>724.2907825224202</v>
+        <v>526.5131854584928</v>
       </c>
       <c r="D40" t="n">
-        <v>558.4127897239429</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E40" t="n">
-        <v>388.6547859746801</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F40" t="n">
-        <v>211.9477319364363</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>477.6707703898316</v>
+        <v>295.952449036051</v>
       </c>
       <c r="L40" t="n">
-        <v>1019.75145377609</v>
+        <v>419.8232506543489</v>
       </c>
       <c r="M40" t="n">
-        <v>1150.35584611462</v>
+        <v>550.4276429928783</v>
       </c>
       <c r="N40" t="n">
-        <v>1277.854757918509</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O40" t="n">
-        <v>1815.289888492053</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P40" t="n">
         <v>2105.896438675981</v>
@@ -7356,28 +7356,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>2120.464450653939</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1833.50894252437</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.482538110662</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1316.090783444074</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y40" t="n">
-        <v>1088.671112758182</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1081.54685999802</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C41" t="n">
-        <v>643.4043871814436</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D41" t="n">
-        <v>207.494602355888</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E41" t="n">
-        <v>207.494602355888</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F41" t="n">
-        <v>207.494602355888</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435811</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586987</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.54685999802</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X41" t="n">
-        <v>1081.54685999802</v>
+        <v>1781.3331245177</v>
       </c>
       <c r="Y41" t="n">
-        <v>1081.54685999802</v>
+        <v>1781.3331245177</v>
       </c>
     </row>
     <row r="42">
@@ -7472,40 +7472,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
         <v>1488.088567599445</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.291841223631</v>
+        <v>756.6558446758912</v>
       </c>
       <c r="C43" t="n">
-        <v>919.7301297068562</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="D43" t="n">
-        <v>753.852136908379</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="E43" t="n">
         <v>584.0941331591162</v>
@@ -7566,28 +7566,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>320.0013704257351</v>
       </c>
       <c r="L43" t="n">
-        <v>688.1212571728194</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M43" t="n">
-        <v>1272.302332591134</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N43" t="n">
-        <v>1842.060047552668</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O43" t="n">
-        <v>1959.82592890043</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>2118.080353351143</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>2028.948289708806</v>
+        <v>1693.312293161066</v>
       </c>
       <c r="W43" t="n">
-        <v>1756.921885295098</v>
+        <v>1421.285888747358</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.53013062851</v>
+        <v>1175.89413408077</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.110459942618</v>
+        <v>948.4744633948783</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2013.98275358362</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="C44" t="n">
-        <v>2013.98275358362</v>
+        <v>1006.021337247617</v>
       </c>
       <c r="D44" t="n">
-        <v>1578.072968758064</v>
+        <v>570.1115524220611</v>
       </c>
       <c r="E44" t="n">
-        <v>1144.298223916359</v>
+        <v>570.1115524220611</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>570.1115524220611</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>170.6088611015383</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895473</v>
@@ -7648,13 +7648,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
@@ -7681,19 +7681,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2013.98275358362</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2013.98275358362</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W44" t="n">
-        <v>2013.98275358362</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X44" t="n">
-        <v>2013.98275358362</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y44" t="n">
-        <v>2013.98275358362</v>
+        <v>1444.163810064193</v>
       </c>
     </row>
     <row r="45">
@@ -7733,10 +7733,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.6552262893761</v>
+        <v>743.6816307030845</v>
       </c>
       <c r="C46" t="n">
-        <v>451.7500725384321</v>
+        <v>571.1199191863094</v>
       </c>
       <c r="D46" t="n">
-        <v>451.7500725384321</v>
+        <v>405.2419263878321</v>
       </c>
       <c r="E46" t="n">
-        <v>451.7500725384321</v>
+        <v>235.4839226385694</v>
       </c>
       <c r="F46" t="n">
-        <v>275.0430185001883</v>
+        <v>58.77686860032557</v>
       </c>
       <c r="G46" t="n">
-        <v>110.3018381127067</v>
+        <v>58.77686860032557</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>1019.75145377609</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1150.35584611462</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1277.854757918509</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>1815.289888492053</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2263.565838640078</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7845,13 +7845,13 @@
         <v>1408.311674774551</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X46" t="n">
-        <v>890.893515694255</v>
+        <v>1162.919920107963</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083632</v>
+        <v>935.5002494220716</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>21.95557875856755</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>6.168514336285696</v>
       </c>
       <c r="R3" t="n">
-        <v>5.066193008365031</v>
+        <v>20.85325743064651</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.96545941697626</v>
+        <v>1.067096563476085</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44574922168921</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.3601117565771</v>
+        <v>18.36011175657686</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4723349079950037</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>19.28657909529871</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.5298678878851</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.14042390876192</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>36.94091896479667</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>37.13925100285415</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8385,16 +8385,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.530227110285695</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>32.96672057477706</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>34.17160518172662</v>
+        <v>31.52930186393523</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.36928463638103</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>21.7544002872377</v>
+        <v>11.14042390876191</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.94091896479665</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,25 +8613,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>34.45295969778792</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>32.53395007869804</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.681643090303425</v>
       </c>
       <c r="N10" t="n">
-        <v>1.530227110285653</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>32.96672057477705</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>34.17160518172661</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.36928463638103</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8856,13 +8856,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464602</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9087,25 +9087,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>69.27619576520624</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>93.97993254278322</v>
       </c>
       <c r="L19" t="n">
-        <v>69.27619576520569</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9339,10 +9339,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>104.3008170116721</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>69.27619576520576</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10044,16 +10044,16 @@
         <v>458.1582657371569</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>141.4680432173438</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042869</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>10.62967161639904</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>323.2928365343471</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M37" t="n">
         <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>141.4680432173443</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>93.97993254278273</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>191.7550444507528</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>118.2717723303425</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>45.75904403825075</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11469,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>10.62967161639926</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>28.97186133784331</v>
+        <v>10.43324883758582</v>
       </c>
       <c r="D2" t="n">
-        <v>8.222887726474497</v>
+        <v>8.222887726474806</v>
       </c>
       <c r="E2" t="n">
-        <v>6.109198142462347</v>
+        <v>27.55984863529711</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2609560440589149</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>25.3292244741782</v>
       </c>
       <c r="C11" t="n">
-        <v>182.846117086918</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>145.3425294405764</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>195.84521004236</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>278.2643867923343</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.922681968989593</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>169.5912612580202</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>113.6820091741347</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,16 +23734,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>218.5665088359494</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>48.33684669439174</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -23794,10 +23794,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>238.1475475743829</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>195.8452100423604</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24025,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>265.4525914586648</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>91.46177548867553</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24135,13 +24135,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>113.7438090910206</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>93.6323136182219</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>114.3417303594685</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>43.81843724330213</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>8.656881591941811</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>114.8692533779066</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>253.4719762588809</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24511,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>294.6492154448422</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>48.85018410292826</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>114.8692533779066</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>120.3970271724591</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>73.62846317195971</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8692533779063</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>113.743809091021</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>251.1911469372249</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>285.9536173888166</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24979,7 +24979,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>69.20332611124921</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>176.2081427891355</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>236.5794634968511</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>36.30276776572413</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>82.91154299085281</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>139.1683390918426</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>264.2552058849433</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>249.4367335470108</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>163.7266725241585</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811443</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>181.1205432166933</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>236.8224941084536</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>138.2882210367979</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>195.84521004236</v>
+        <v>282.1506122026498</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>144.856049484471</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>163.3138540411553</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>151.1299921881727</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>119.5660061336201</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362098.3061829121</v>
+        <v>362098.306182912</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>362098.306182912</v>
+        <v>362098.3061829121</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>362098.3061829121</v>
+        <v>362098.3061829119</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>362098.306182912</v>
+        <v>362098.3061829119</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>362098.3061829121</v>
+        <v>362098.306182912</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>362098.3061829121</v>
+        <v>362098.306182912</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>362098.3061829121</v>
+        <v>362098.306182912</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362098.3061829122</v>
+        <v>362098.306182912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362098.306182912</v>
+        <v>362098.3061829121</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344884.0606555934</v>
+        <v>344884.0606555933</v>
       </c>
       <c r="C2" t="n">
         <v>348495.7579287654</v>
@@ -26325,10 +26325,10 @@
         <v>204486.8426910625</v>
       </c>
       <c r="F2" t="n">
-        <v>204486.8426910625</v>
+        <v>204486.8426910626</v>
       </c>
       <c r="G2" t="n">
-        <v>204486.8426910625</v>
+        <v>204486.8426910626</v>
       </c>
       <c r="H2" t="n">
         <v>204486.8426910626</v>
@@ -26340,19 +26340,19 @@
         <v>204486.8426910625</v>
       </c>
       <c r="K2" t="n">
-        <v>204486.8426910626</v>
+        <v>204486.8426910625</v>
       </c>
       <c r="L2" t="n">
-        <v>204486.8426910626</v>
+        <v>204486.8426910625</v>
       </c>
       <c r="M2" t="n">
-        <v>204486.8426910626</v>
+        <v>204486.8426910625</v>
       </c>
       <c r="N2" t="n">
         <v>204486.8426910625</v>
       </c>
       <c r="O2" t="n">
-        <v>204486.8426910626</v>
+        <v>204486.8426910625</v>
       </c>
       <c r="P2" t="n">
         <v>204486.8426910626</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25672.80150169018</v>
+        <v>25672.80150168981</v>
       </c>
       <c r="C3" t="n">
-        <v>18763.31828088683</v>
+        <v>18763.31828088715</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6103.578707182963</v>
+        <v>6103.578707182882</v>
       </c>
       <c r="K3" t="n">
-        <v>4629.330666749585</v>
+        <v>4629.330666749664</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>294349.6920770006</v>
       </c>
       <c r="D4" t="n">
-        <v>294349.6920770006</v>
+        <v>294349.6920770005</v>
       </c>
       <c r="E4" t="n">
-        <v>16511.41869660762</v>
+        <v>16511.41869660761</v>
       </c>
       <c r="F4" t="n">
         <v>16511.41869660761</v>
       </c>
       <c r="G4" t="n">
+        <v>16511.41869660761</v>
+      </c>
+      <c r="H4" t="n">
         <v>16511.4186966076</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16511.41869660761</v>
       </c>
       <c r="I4" t="n">
         <v>16511.4186966076</v>
@@ -26447,19 +26447,19 @@
         <v>16511.4186966076</v>
       </c>
       <c r="L4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.4186966076</v>
       </c>
       <c r="M4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.4186966076</v>
       </c>
       <c r="N4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.4186966076</v>
       </c>
       <c r="O4" t="n">
         <v>16511.41869660761</v>
       </c>
       <c r="P4" t="n">
-        <v>16511.4186966076</v>
+        <v>16511.41869660761</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35449.86995413291</v>
+        <v>35449.86995413289</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
@@ -26478,10 +26478,10 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
@@ -26508,7 +26508,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12483.98043237554</v>
+        <v>-12497.87157573358</v>
       </c>
       <c r="C6" t="n">
-        <v>-1470.82223933217</v>
+        <v>-1470.822239332461</v>
       </c>
       <c r="D6" t="n">
-        <v>17292.49604155475</v>
+        <v>17292.4960415548</v>
       </c>
       <c r="E6" t="n">
-        <v>-370561.1667711646</v>
+        <v>-371115.0472143866</v>
       </c>
       <c r="F6" t="n">
-        <v>141924.3427848171</v>
+        <v>141370.4623415952</v>
       </c>
       <c r="G6" t="n">
-        <v>141924.3427848171</v>
+        <v>141370.4623415952</v>
       </c>
       <c r="H6" t="n">
-        <v>141924.3427848172</v>
+        <v>141370.4623415952</v>
       </c>
       <c r="I6" t="n">
-        <v>141924.3427848171</v>
+        <v>141370.4623415952</v>
       </c>
       <c r="J6" t="n">
-        <v>135820.7640776342</v>
+        <v>135266.8836344123</v>
       </c>
       <c r="K6" t="n">
-        <v>137295.0121180676</v>
+        <v>136741.1316748455</v>
       </c>
       <c r="L6" t="n">
-        <v>141924.3427848172</v>
+        <v>141370.4623415952</v>
       </c>
       <c r="M6" t="n">
-        <v>5169.438401701744</v>
+        <v>4615.557958479736</v>
       </c>
       <c r="N6" t="n">
-        <v>141924.3427848171</v>
+        <v>141370.4623415952</v>
       </c>
       <c r="O6" t="n">
-        <v>141924.3427848172</v>
+        <v>141370.4623415952</v>
       </c>
       <c r="P6" t="n">
-        <v>141924.3427848172</v>
+        <v>141370.4623415952</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443723</v>
+        <v>18.52934677443698</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
@@ -26749,10 +26749,10 @@
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932211</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082541</v>
+        <v>23.3277992508251</v>
       </c>
       <c r="C4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619341</v>
@@ -26810,25 +26810,25 @@
         <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="J4" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="L4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="M4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="N4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="O4" t="n">
         <v>590.0818943619341</v>
-      </c>
-      <c r="L4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="M4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="N4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="O4" t="n">
-        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
         <v>590.0818943619341</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443723</v>
+        <v>18.52934677443698</v>
       </c>
       <c r="C3" t="n">
-        <v>14.22375528613437</v>
+        <v>14.22375528613462</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082541</v>
+        <v>23.3277992508251</v>
       </c>
       <c r="C4" t="n">
-        <v>17.98720379670194</v>
+        <v>17.98720379670225</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082541</v>
+        <v>23.3277992508251</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670194</v>
+        <v>17.98720379670225</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082541</v>
+        <v>23.3277992508251</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670194</v>
+        <v>17.98720379670225</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.11791793379035</v>
+        <v>81.11791793379038</v>
       </c>
       <c r="T2" t="n">
         <v>217.5404755973798</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0908620689655</v>
+        <v>96.76306281814043</v>
       </c>
       <c r="C3" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491228</v>
+        <v>70.81158671408718</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>69.85141127549072</v>
       </c>
       <c r="F3" t="n">
-        <v>59.22220074917459</v>
+        <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>61.16358400957168</v>
+        <v>84.49138326039709</v>
       </c>
       <c r="H3" t="n">
-        <v>17.60557545265905</v>
+        <v>40.93337470348445</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.08058333091451</v>
+        <v>62.08058333091452</v>
       </c>
       <c r="T3" t="n">
         <v>128.7162112922732</v>
@@ -27517,13 +27517,13 @@
         <v>174.5705594526576</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>176.5792171784939</v>
       </c>
       <c r="W3" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>132.7716358233818</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.5726332809718</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>147.5082951507819</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>140.8914136196671</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>151.6121842470362</v>
       </c>
       <c r="G4" t="n">
         <v>163.90194864828</v>
@@ -27557,7 +27557,7 @@
         <v>138.2060754985719</v>
       </c>
       <c r="I4" t="n">
-        <v>86.76851237028718</v>
+        <v>85.92263398419696</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.70124719403648</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.0666475106129</v>
@@ -27593,19 +27593,19 @@
         <v>243.2778848592312</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6468481807266</v>
+        <v>252.3190489299015</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>245.9783411187463</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.5983483989058</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27697,10 +27697,10 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>69.00164186746204</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>57.74913128065019</v>
       </c>
       <c r="E6" t="n">
         <v>93.17921052631581</v>
@@ -27709,7 +27709,7 @@
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>84.46078876789484</v>
+        <v>43.14578572036749</v>
       </c>
       <c r="H6" t="n">
         <v>40.6378963153706</v>
@@ -27748,7 +27748,7 @@
         <v>20.19730100379491</v>
       </c>
       <c r="T6" t="n">
-        <v>128.5928940176698</v>
+        <v>87.27789097014248</v>
       </c>
       <c r="U6" t="n">
         <v>174.5685466570983</v>
@@ -27760,10 +27760,10 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>134.4458397173452</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27785,16 +27785,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>133.624980450334</v>
+        <v>157.097685947878</v>
       </c>
       <c r="G7" t="n">
         <v>122.5612962059744</v>
       </c>
       <c r="H7" t="n">
-        <v>96.66302601383404</v>
+        <v>96.66302601383403</v>
       </c>
       <c r="I7" t="n">
-        <v>85.99716511640959</v>
+        <v>44.68216206888225</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>156.6196485125224</v>
@@ -27934,22 +27934,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>69.00164186746204</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
-        <v>56.11184910989704</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247266</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036751</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>201.8532889431057</v>
+        <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>257.8031515728463</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>207.3031764290495</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07448983627914457</v>
+        <v>0.0744898362791436</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7628690357937895</v>
+        <v>0.7628690357937796</v>
       </c>
       <c r="I2" t="n">
-        <v>2.871769413151724</v>
+        <v>2.871769413151686</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741897053</v>
+        <v>6.32223174189697</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593245</v>
+        <v>9.47538651159312</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862112</v>
+        <v>11.75505483862096</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455035</v>
+        <v>13.07976346455018</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187847</v>
+        <v>13.2914077118783</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237773</v>
+        <v>12.55069940237757</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923635</v>
+        <v>10.71173156923621</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489478</v>
+        <v>8.044064307489373</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169819</v>
+        <v>4.679172178169758</v>
       </c>
       <c r="S2" t="n">
-        <v>1.697437144211009</v>
+        <v>1.697437144210986</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3260792583119555</v>
+        <v>0.3260792583119513</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005959186902331564</v>
+        <v>0.005959186902331486</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03985557608086498</v>
+        <v>0.03985557608086446</v>
       </c>
       <c r="H3" t="n">
-        <v>0.384920958465196</v>
+        <v>0.384920958465191</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257851</v>
+        <v>1.372220492257833</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850494</v>
+        <v>3.765477913850445</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268447</v>
+        <v>6.435801511268363</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136934</v>
+        <v>8.65372935913682</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206829</v>
+        <v>10.09849399206816</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903163</v>
+        <v>10.3657710790315</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555625</v>
+        <v>9.482655419555501</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862717</v>
+        <v>7.610666979862618</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690765</v>
+        <v>5.087529325690698</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178618</v>
+        <v>2.474541820178585</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7402998451862415</v>
+        <v>0.7402998451862318</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1606459404312057</v>
+        <v>0.1606459404312036</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002622077373741118</v>
+        <v>0.002622077373741084</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0334135761506245</v>
+        <v>0.03341357615062407</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2970770679573708</v>
+        <v>0.2970770679573669</v>
       </c>
       <c r="I4" t="n">
-        <v>1.004837362784235</v>
+        <v>1.004837362784222</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849152</v>
+        <v>2.362339833849121</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136191</v>
+        <v>3.882050029136141</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248302</v>
+        <v>4.967687494248237</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941501984</v>
+        <v>5.237729941501915</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430395115</v>
+        <v>5.113188430395049</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999182</v>
+        <v>4.722857108999119</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526438</v>
+        <v>4.041220155526386</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362940021</v>
+        <v>2.797931362939984</v>
       </c>
       <c r="R4" t="n">
-        <v>1.502395887645352</v>
+        <v>1.502395887645333</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5823075043704287</v>
+        <v>0.582307504370421</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1427670980981228</v>
+        <v>0.142767098098121</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001822558699124975</v>
+        <v>0.001822558699124951</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32095,19 +32095,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32548,7 +32548,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562338</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
         <v>316.116681354841</v>
@@ -32967,19 +32967,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -33049,7 +33049,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
@@ -33058,7 +33058,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
         <v>97.77787936116989</v>
@@ -33116,16 +33116,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
         <v>316.116681354841</v>
@@ -33204,19 +33204,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,34 +33259,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33295,7 +33295,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
@@ -33353,16 +33353,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
         <v>316.116681354841</v>
@@ -33441,19 +33441,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -33523,7 +33523,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33532,7 +33532,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
         <v>97.77787936116989</v>
@@ -33590,16 +33590,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
         <v>316.116681354841</v>
@@ -33678,19 +33678,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,34 +33733,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -33769,7 +33769,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
         <v>97.77787936116989</v>
@@ -33827,16 +33827,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562338</v>
@@ -34234,7 +34234,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
@@ -34447,7 +34447,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34471,7 +34471,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.459147934020327</v>
+        <v>2.459147934020288</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741897053</v>
+        <v>6.32223174189697</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593246</v>
+        <v>9.47538651159312</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862111</v>
+        <v>11.75505483862096</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455035</v>
+        <v>13.07976346455018</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187848</v>
+        <v>13.2914077118783</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237773</v>
+        <v>12.55069940237757</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923635</v>
+        <v>10.71173156923621</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489478</v>
+        <v>8.044064307489379</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169821</v>
+        <v>4.67917217816975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.32779925082541</v>
+        <v>1.372220492257833</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850493</v>
+        <v>3.765477913850444</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268444</v>
+        <v>6.435801511268362</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136932</v>
+        <v>8.653729359136822</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206828</v>
+        <v>10.09849399206816</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903163</v>
+        <v>10.3657710790315</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555627</v>
+        <v>9.482655419555499</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862714</v>
+        <v>7.610666979862621</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690767</v>
+        <v>11.25604366197639</v>
       </c>
       <c r="R3" t="n">
-        <v>7.540734828543648</v>
+        <v>23.32779925082509</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082541</v>
+        <v>3.429436397325206</v>
       </c>
       <c r="K4" t="n">
-        <v>23.3277992508254</v>
+        <v>3.88205002913614</v>
       </c>
       <c r="L4" t="n">
-        <v>23.32779925082541</v>
+        <v>23.3277992508251</v>
       </c>
       <c r="M4" t="n">
-        <v>5.710064849496987</v>
+        <v>5.237729941501918</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430395113</v>
+        <v>5.113188430395049</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999179</v>
+        <v>4.722857108999122</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526432</v>
+        <v>23.32779925082509</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.79793136294002</v>
+        <v>23.32779925082509</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K5" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L5" t="n">
         <v>20.77863378260766</v>
@@ -34950,7 +34950,7 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O5" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P5" t="n">
         <v>18.93442017160913</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J6" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K6" t="n">
-        <v>11.37614111852891</v>
+        <v>33.13054140576667</v>
       </c>
       <c r="L6" t="n">
         <v>15.29662563687356</v>
@@ -35032,13 +35032,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P6" t="n">
-        <v>13.45287318408647</v>
+        <v>13.45287318408649</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.13331336509094</v>
+        <v>8.99288945632901</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>4.37408408273069</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.175752044673201</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>6.862043349739427</v>
+        <v>6.862043349739423</v>
       </c>
       <c r="L7" t="n">
-        <v>8.781052968829309</v>
+        <v>8.781052968829314</v>
       </c>
       <c r="M7" t="n">
-        <v>9.258389161154689</v>
+        <v>9.258389161154682</v>
       </c>
       <c r="N7" t="n">
-        <v>10.5684724707054</v>
+        <v>9.038245360419708</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752735</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P7" t="n">
-        <v>41.31500304752734</v>
+        <v>38.67269972973595</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -35175,7 +35175,7 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
         <v>20.77863378260766</v>
@@ -35187,10 +35187,10 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P8" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
         <v>14.21896100560221</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>28.75252608797635</v>
+        <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>28.41038681069782</v>
+        <v>17.79641043222204</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35269,13 +35269,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408649</v>
+        <v>13.45287318408647</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.99288945632901</v>
+        <v>8.992889456329024</v>
       </c>
       <c r="R9" t="n">
-        <v>4.37408408273069</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739428</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829309</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M10" t="n">
-        <v>9.258389161154689</v>
+        <v>10.94003225145811</v>
       </c>
       <c r="N10" t="n">
-        <v>10.56847247070536</v>
+        <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752733</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>7.143397865800722</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35409,7 +35409,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -35418,7 +35418,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
@@ -35576,13 +35576,13 @@
         <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712374</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>194.3982176018708</v>
+        <v>266.5900650540088</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562328</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35971,7 +35971,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
@@ -35980,7 +35980,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>191.7578119039531</v>
       </c>
       <c r="L19" t="n">
-        <v>194.3982176018703</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36120,13 +36120,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M22" t="n">
-        <v>236.2244456364492</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062837</v>
@@ -36366,16 +36366,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116988</v>
       </c>
       <c r="L25" t="n">
-        <v>194.3982176018703</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
@@ -36539,7 +36539,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
@@ -36612,7 +36612,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36673,19 +36673,19 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>260.4234789221537</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>258.5173486362896</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -36846,10 +36846,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36928,7 +36928,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409514</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>139.7481869072822</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,10 +37083,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>139.4164512162874</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>425.0797619663506</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37402,7 +37402,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>260.4234789221541</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125705</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062837</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37633,7 +37633,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
@@ -37703,22 +37703,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>191.7578119039526</v>
       </c>
       <c r="L40" t="n">
-        <v>547.5562458447059</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5419698827563</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
         <v>240.36368292423</v>
@@ -37779,13 +37779,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,7 +37794,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562336</v>
@@ -37870,13 +37870,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>216.0496516915124</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>147.5459694702542</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
         <v>240.36368292423</v>
@@ -38016,16 +38016,16 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38095,7 +38095,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38107,7 +38107,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
@@ -38189,13 +38189,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.10166275847587</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
